--- a/data/trans_bre/P3A_R1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-14.19713146466098</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.047321029166881</v>
+        <v>-4.047321029166884</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2821984937823115</v>
@@ -649,7 +649,7 @@
         <v>-0.5147916986461328</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1582755255464007</v>
+        <v>-0.1582755255464008</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.262032676086791</v>
+        <v>-8.130509886784736</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.70761382555238</v>
+        <v>-17.96850404830377</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-18.39407191666035</v>
+        <v>-18.67547097117899</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.108037694884818</v>
+        <v>-8.612460821727117</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.467073504520933</v>
+        <v>-0.4611206369532945</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6282795253983965</v>
+        <v>-0.6386836388272928</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6070456892086251</v>
+        <v>-0.6194770305184486</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2863480969663165</v>
+        <v>-0.3004940799229402</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.8405563232051485</v>
+        <v>-0.8815038154408539</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.164474679912985</v>
+        <v>-9.23687349623566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.874999775995091</v>
+        <v>-9.895467806643019</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2558332474432782</v>
+        <v>-0.04982892060056129</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.06198533982681557</v>
+        <v>-0.06672448070375731</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.3884768181155263</v>
+        <v>-0.3893825142149037</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.3880492464417891</v>
+        <v>-0.3899632295790995</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.01116203647595558</v>
+        <v>-0.002250560970265395</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-12.0078642067543</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-6.4490849887684</v>
+        <v>-6.449084988768397</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.48322169181288</v>
@@ -749,7 +749,7 @@
         <v>-0.3812481064327005</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2182819450483021</v>
+        <v>-0.218281945048302</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-12.89144842960296</v>
+        <v>-12.92109987625137</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-17.09728001691434</v>
+        <v>-17.26572347877581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-15.96192813878605</v>
+        <v>-16.04239298165221</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-10.345598503399</v>
+        <v>-10.31155304286811</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5876770237022689</v>
+        <v>-0.5941792830190635</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5838001369210941</v>
+        <v>-0.5872533599648692</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4755619753543195</v>
+        <v>-0.4741141405610921</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3254879941495735</v>
+        <v>-0.3200677040857825</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-6.525342762256909</v>
+        <v>-6.499607961198342</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-10.04268075803116</v>
+        <v>-9.966267503236526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-8.101766808025895</v>
+        <v>-8.196985296216146</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.726129232707752</v>
+        <v>-2.615063199618418</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.3471443968859743</v>
+        <v>-0.3571885027752853</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3897435824361862</v>
+        <v>-0.3889035585542596</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2714718794988751</v>
+        <v>-0.281005247520191</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.09950711828540142</v>
+        <v>-0.09566334459051369</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.83855221439663</v>
+        <v>-14.57781725977664</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.75853661441172</v>
+        <v>-14.70480390886983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-16.31855946724799</v>
+        <v>-16.36669846870839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-13.06371225661132</v>
+        <v>-13.0982791767236</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5439543725824427</v>
+        <v>-0.538856241734219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4995700990568432</v>
+        <v>-0.5021999141746288</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4589346810842172</v>
+        <v>-0.4693181900086215</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3727139760484068</v>
+        <v>-0.3751062258897289</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-6.163509558603632</v>
+        <v>-5.764643427961022</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.516459341884997</v>
+        <v>-5.897877038155701</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-7.534722491473582</v>
+        <v>-7.043425650918072</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.299476839884102</v>
+        <v>-4.217948392924463</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2755502951979558</v>
+        <v>-0.2675357519062078</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.2192980686810598</v>
+        <v>-0.2385724871682619</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.2467223739084208</v>
+        <v>-0.2357904506536626</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1167615931611297</v>
+        <v>-0.1449576000739561</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-17.32161717336993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-10.3766492737605</v>
+        <v>-10.37664927376051</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4543229051975999</v>
@@ -949,7 +949,7 @@
         <v>-0.4728151239535588</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3672556688537809</v>
+        <v>-0.367255668853781</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-13.93407086201107</v>
+        <v>-13.93172724100613</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-16.59000977547812</v>
+        <v>-17.00644172294815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-21.30814155587116</v>
+        <v>-21.39913674328672</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-13.76518434809269</v>
+        <v>-13.9189636736571</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5582518911472691</v>
+        <v>-0.5503365568672846</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5259805942267324</v>
+        <v>-0.5302725035035264</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5519234637914056</v>
+        <v>-0.550067363892517</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4487188825897388</v>
+        <v>-0.4569619403108295</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-7.193003318921905</v>
+        <v>-7.210724510446777</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-8.810200242335016</v>
+        <v>-9.049750656061793</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-13.11328737048908</v>
+        <v>-13.10821517734838</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-6.764266294480807</v>
+        <v>-6.902757228609372</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3467500206499131</v>
+        <v>-0.3369316621174488</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3240030420579036</v>
+        <v>-0.3252239597921748</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3807567137073178</v>
+        <v>-0.3806043836659272</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2590699505048319</v>
+        <v>-0.2658090185541482</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-13.84653619887218</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-7.695267835899299</v>
+        <v>-7.695267835899297</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.4266099040227959</v>
@@ -1049,7 +1049,7 @@
         <v>-0.4272008287281406</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2650757279183494</v>
+        <v>-0.2650757279183493</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.67688797453592</v>
+        <v>-10.72208112845526</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.5212512294094</v>
+        <v>-14.52786741350281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.85504604435679</v>
+        <v>-15.84391754028512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.4890446929086</v>
+        <v>-9.644397797460345</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4847488218942516</v>
+        <v>-0.4926273919098472</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5098248710882989</v>
+        <v>-0.5099276146568591</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4746174102517119</v>
+        <v>-0.4729041125943932</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3191662760258789</v>
+        <v>-0.3190725713414035</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-6.984483819972723</v>
+        <v>-7.069671633432494</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-10.39191538667952</v>
+        <v>-10.42152321884362</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-11.66120700946188</v>
+        <v>-11.78978152736621</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-5.534688710475312</v>
+        <v>-5.825740836071512</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.3495363662429206</v>
+        <v>-0.3574647073888658</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.3964124193181757</v>
+        <v>-0.3992632978376382</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.3728657802914093</v>
+        <v>-0.3782328999894365</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2025824347547595</v>
+        <v>-0.2096975779092644</v>
       </c>
     </row>
     <row r="19">
